--- a/Reports/Switching_states.xlsx
+++ b/Reports/Switching_states.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetcan.akuz\Documents\GitHub\Thesis\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2306091C-FD11-4980-A466-4E56B05B8E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0EE46B-86DF-4235-A06B-D75BF93FB24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{49830D3D-9E49-4990-A698-C50FF1CD3AA8}"/>
+    <workbookView xWindow="-28920" yWindow="14265" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{49830D3D-9E49-4990-A698-C50FF1CD3AA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>State</t>
   </si>
@@ -69,6 +70,45 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>Va</t>
+  </si>
+  <si>
+    <t>Vb</t>
+  </si>
+  <si>
+    <t>Vc</t>
+  </si>
+  <si>
+    <t>Main Sector</t>
+  </si>
+  <si>
+    <t>&lt;0</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>PNN</t>
+  </si>
+  <si>
+    <t>PPN</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>NNP</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>Center vector</t>
   </si>
 </sst>
 </file>
@@ -133,13 +173,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,16 +497,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1311593D-1D71-4226-9297-CFDF29320388}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -499,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -516,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -533,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,6 +589,147 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6100FC-50AC-48C1-A7A5-614D5E614486}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="2" max="3" width="5.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
